--- a/data/dataCarnian.xlsx
+++ b/data/dataCarnian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\TriassicJPI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD270410-49B0-46D6-860E-8D2B119DEA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372714C7-CE44-4524-BBEC-11435FF7C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26310" yWindow="1260" windowWidth="27420" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31815" yWindow="1440" windowWidth="28665" windowHeight="15345" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cont_d18O" sheetId="1" r:id="rId1"/>
@@ -22,28 +22,17 @@
     <sheet name="Mar_d18O" sheetId="3" r:id="rId7"/>
     <sheet name="Mar_Sites" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5660" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5803" uniqueCount="1290">
   <si>
     <t>Sample</t>
   </si>
@@ -3928,6 +3917,9 @@
   </si>
   <si>
     <t>Central_Germany</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
   </si>
 </sst>
 </file>
@@ -3937,7 +3929,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4002,19 +3994,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4056,7 +4035,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4163,11 +4142,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4455,7 +4429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.42578125" style="5" customWidth="1"/>
   </cols>
@@ -5822,11 +5796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C360"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -7099,13 +7071,13 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="35" t="s">
         <v>1031</v>
       </c>
-      <c r="B116" s="39">
+      <c r="B116" s="3">
         <v>12.197073852107227</v>
       </c>
-      <c r="C116" s="40" t="s">
+      <c r="C116" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -7187,13 +7159,13 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="35" t="s">
         <v>1039</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B124" s="3">
         <v>12.31719243319643</v>
       </c>
-      <c r="C124" s="40" t="s">
+      <c r="C124" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -9801,13 +9773,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDA4259-F189-46C8-9B21-44CCDC193E5F}">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C366" sqref="C32:C366"/>
+    <sheetView topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
@@ -10154,1573 +10126,1573 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>941</v>
+      <c r="A32" s="5">
+        <v>99.5</v>
       </c>
       <c r="B32">
-        <v>0.15111506774904188</v>
+        <v>0.12070272568172639</v>
       </c>
       <c r="C32" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>942</v>
+      <c r="A33" s="5">
+        <v>100</v>
       </c>
       <c r="B33">
-        <v>0.17146871471747843</v>
+        <v>9.8771963826991924E-2</v>
       </c>
       <c r="C33" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>943</v>
+      <c r="A34" s="5">
+        <v>100.5</v>
       </c>
       <c r="B34">
-        <v>0.16477354502635913</v>
+        <v>0.10778837000281306</v>
       </c>
       <c r="C34" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>944</v>
+      <c r="A35" s="5">
+        <v>101</v>
       </c>
       <c r="B35">
-        <v>0.17713291750995105</v>
+        <v>9.0059822676161555E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>945</v>
+      <c r="A36" s="5">
+        <v>101.5</v>
       </c>
       <c r="B36">
-        <v>0.17899231309307209</v>
+        <v>0.10869675387661858</v>
       </c>
       <c r="C36" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>946</v>
+      <c r="A37" s="5">
+        <v>102</v>
       </c>
       <c r="B37">
-        <v>0.1671036458020328</v>
+        <v>9.02506554313494E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>947</v>
+      <c r="A38" s="5">
+        <v>102.5</v>
       </c>
       <c r="B38">
-        <v>0.17687941971869137</v>
+        <v>9.2105478075908451E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>948</v>
+      <c r="A39" s="5">
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>0.18139181640788785</v>
+        <v>8.8476628006515123E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>949</v>
+      <c r="A40" s="5">
+        <v>103.5</v>
       </c>
       <c r="B40">
-        <v>0.18290134062039204</v>
+        <v>0.10613484370957171</v>
       </c>
       <c r="C40" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>950</v>
+      <c r="A41" s="5">
+        <v>104</v>
       </c>
       <c r="B41">
-        <v>0.19364697846128917</v>
+        <v>0.1097623095269231</v>
       </c>
       <c r="C41" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>951</v>
+      <c r="A42" s="5">
+        <v>104.5</v>
       </c>
       <c r="B42">
-        <v>0.20279970699473973</v>
+        <v>0.13797914786902193</v>
       </c>
       <c r="C42" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>952</v>
+      <c r="A43" s="5">
+        <v>105</v>
       </c>
       <c r="B43">
-        <v>0.16906182791233201</v>
+        <v>0.10824563827531908</v>
       </c>
       <c r="C43" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>953</v>
+      <c r="A44" s="5">
+        <v>105.5</v>
       </c>
       <c r="B44">
-        <v>0.15967957355209622</v>
+        <v>0.10224093774273862</v>
       </c>
       <c r="C44" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>954</v>
+      <c r="A45" s="5">
+        <v>106</v>
       </c>
       <c r="B45">
-        <v>0.19979027232324187</v>
+        <v>0.1102821580835459</v>
       </c>
       <c r="C45" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>955</v>
+      <c r="A46" s="5">
+        <v>107</v>
       </c>
       <c r="B46">
-        <v>0.19675585691930372</v>
+        <v>0.11041327212904448</v>
       </c>
       <c r="C46" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>956</v>
+      <c r="A47" s="5">
+        <v>107.5</v>
       </c>
       <c r="B47">
-        <v>0.19212460219210645</v>
+        <v>0.13203510889823555</v>
       </c>
       <c r="C47" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>957</v>
+      <c r="A48" s="5">
+        <v>108</v>
       </c>
       <c r="B48">
-        <v>0.19167928902560585</v>
+        <v>0.12704639699764883</v>
       </c>
       <c r="C48" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>958</v>
+      <c r="A49" s="5">
+        <v>108.5</v>
       </c>
       <c r="B49">
-        <v>0.18198458639079174</v>
+        <v>0.14069991531452422</v>
       </c>
       <c r="C49" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>959</v>
+      <c r="A50" s="5">
+        <v>109</v>
       </c>
       <c r="B50">
-        <v>0.19326932184684351</v>
+        <v>0.13022887508886735</v>
       </c>
       <c r="C50" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>960</v>
+      <c r="A51" s="5">
+        <v>109.5</v>
       </c>
       <c r="B51">
-        <v>0.1898458413404408</v>
+        <v>0.13326580198591076</v>
       </c>
       <c r="C51" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>961</v>
+      <c r="A52" s="5">
+        <v>110</v>
       </c>
       <c r="B52">
-        <v>0.19743452219809868</v>
+        <v>0.1211048923228237</v>
       </c>
       <c r="C52" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>962</v>
+      <c r="A53" s="5">
+        <v>110.5</v>
       </c>
       <c r="B53">
-        <v>0.19987100673685712</v>
+        <v>0.13754476513272049</v>
       </c>
       <c r="C53" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>963</v>
+      <c r="A54" s="5">
+        <v>111.5</v>
       </c>
       <c r="B54">
-        <v>0.17342432463368848</v>
+        <v>0.13244123880648009</v>
       </c>
       <c r="C54" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>964</v>
+      <c r="A55" s="5">
+        <v>112</v>
       </c>
       <c r="B55">
-        <v>0.19670064186043015</v>
+        <v>0.12322158343842599</v>
       </c>
       <c r="C55" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>965</v>
+      <c r="A56" s="5">
+        <v>112.5</v>
       </c>
       <c r="B56">
-        <v>0.17273736119325453</v>
+        <v>0.1260545444453946</v>
       </c>
       <c r="C56" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>966</v>
+      <c r="A57" s="5">
+        <v>113</v>
       </c>
       <c r="B57">
-        <v>0.19111808443730252</v>
+        <v>0.12238273953566443</v>
       </c>
       <c r="C57" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>967</v>
+      <c r="A58" s="5">
+        <v>113.5</v>
       </c>
       <c r="B58">
-        <v>0.17957661731895341</v>
+        <v>0.12925373874208265</v>
       </c>
       <c r="C58" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>968</v>
+      <c r="A59" s="5">
+        <v>114</v>
       </c>
       <c r="B59">
-        <v>0.19902428778638556</v>
+        <v>0.1433813415837269</v>
       </c>
       <c r="C59" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>969</v>
+      <c r="A60" s="5">
+        <v>114.5</v>
       </c>
       <c r="B60">
-        <v>0.16532547488165583</v>
+        <v>0.13567741334590236</v>
       </c>
       <c r="C60" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>970</v>
+      <c r="A61" s="5">
+        <v>115</v>
       </c>
       <c r="B61">
-        <v>0.14606274374645073</v>
+        <v>0.13553729799322259</v>
       </c>
       <c r="C61" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>971</v>
+      <c r="A62" s="5">
+        <v>115.5</v>
       </c>
       <c r="B62">
-        <v>0.17992767399985918</v>
+        <v>0.14207787073311365</v>
       </c>
       <c r="C62" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>972</v>
+      <c r="A63" s="5">
+        <v>116</v>
       </c>
       <c r="B63">
-        <v>0.17583578030106245</v>
+        <v>0.1243401162609676</v>
       </c>
       <c r="C63" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>973</v>
+      <c r="A64" s="5">
+        <v>116.5</v>
       </c>
       <c r="B64">
-        <v>0.18079856304044045</v>
+        <v>0.11449921323390397</v>
       </c>
       <c r="C64" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>974</v>
+      <c r="A65" s="5">
+        <v>117</v>
       </c>
       <c r="B65">
-        <v>0.19639742408329408</v>
+        <v>0.1395702145300356</v>
       </c>
       <c r="C65" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>975</v>
+      <c r="A66" s="5">
+        <v>118</v>
       </c>
       <c r="B66">
-        <v>0.19910105490665173</v>
+        <v>0.16154380947734456</v>
       </c>
       <c r="C66" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>976</v>
+      <c r="A67" s="5">
+        <v>118.5</v>
       </c>
       <c r="B67">
-        <v>0.19385985715752793</v>
+        <v>0.15494714640394044</v>
       </c>
       <c r="C67" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>977</v>
+      <c r="A68" s="5">
+        <v>119</v>
       </c>
       <c r="B68">
-        <v>0.20000686443968815</v>
+        <v>0.12243379693735434</v>
       </c>
       <c r="C68" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>978</v>
+      <c r="A69" s="5">
+        <v>119.5</v>
       </c>
       <c r="B69">
-        <v>0.20081077872942021</v>
+        <v>0.14050629418042601</v>
       </c>
       <c r="C69" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>979</v>
+      <c r="A70" s="5">
+        <v>120</v>
       </c>
       <c r="B70">
-        <v>0.20815820220523748</v>
+        <v>0.14775921839279527</v>
       </c>
       <c r="C70" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>980</v>
+      <c r="A71" s="5">
+        <v>120.5</v>
       </c>
       <c r="B71">
-        <v>0.19415943199921779</v>
+        <v>0.13884770923560089</v>
       </c>
       <c r="C71" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>981</v>
+      <c r="A72" s="5">
+        <v>121</v>
       </c>
       <c r="B72">
-        <v>0.20476904886957789</v>
+        <v>0.12389329422073014</v>
       </c>
       <c r="C72" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>982</v>
+      <c r="A73" s="5">
+        <v>121.5</v>
       </c>
       <c r="B73">
-        <v>0.19947188942873528</v>
+        <v>0.12281395388637735</v>
       </c>
       <c r="C73" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>983</v>
+      <c r="A74" s="5">
+        <v>122</v>
       </c>
       <c r="B74">
-        <v>0.15179536436400065</v>
+        <v>0.11940563711776747</v>
       </c>
       <c r="C74" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>984</v>
+      <c r="A75" s="5">
+        <v>122.5</v>
       </c>
       <c r="B75">
-        <v>8.6249062184177619E-2</v>
+        <v>0.12049773247001223</v>
       </c>
       <c r="C75" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>985</v>
+      <c r="A76" s="5">
+        <v>123</v>
       </c>
       <c r="B76">
-        <v>7.4738037845513111E-2</v>
+        <v>9.3570578194960119E-2</v>
       </c>
       <c r="C76" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>986</v>
+      <c r="A77" s="5">
+        <v>123.5</v>
       </c>
       <c r="B77">
-        <v>0.11306473102299949</v>
+        <v>0.13086326890582384</v>
       </c>
       <c r="C77" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>987</v>
+      <c r="A78" s="5">
+        <v>124</v>
       </c>
       <c r="B78">
-        <v>0.12711636403506596</v>
+        <v>0.11482684154335378</v>
       </c>
       <c r="C78" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>988</v>
+      <c r="A79" s="5">
+        <v>124.5</v>
       </c>
       <c r="B79">
-        <v>0.13639020933511603</v>
+        <v>0.1184241191810161</v>
       </c>
       <c r="C79" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>989</v>
+      <c r="A80" s="5">
+        <v>125</v>
       </c>
       <c r="B80">
-        <v>0.10135858606995805</v>
+        <v>0.1143295977859073</v>
       </c>
       <c r="C80" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>990</v>
+      <c r="A81" s="5">
+        <v>125.5</v>
       </c>
       <c r="B81">
-        <v>0.17068750481631453</v>
+        <v>0.11954937212199976</v>
       </c>
       <c r="C81" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>991</v>
+      <c r="A82" s="5">
+        <v>126</v>
       </c>
       <c r="B82">
-        <v>0.17933934862302614</v>
+        <v>0.11091488332969471</v>
       </c>
       <c r="C82" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>992</v>
+      <c r="A83" s="5">
+        <v>126.5</v>
       </c>
       <c r="B83">
-        <v>0.16620258800525572</v>
+        <v>0.11095582417126809</v>
       </c>
       <c r="C83" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>993</v>
+      <c r="A84" s="5">
+        <v>127</v>
       </c>
       <c r="B84">
-        <v>0.10690996414371307</v>
+        <v>0.11010632390454256</v>
       </c>
       <c r="C84" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>994</v>
+      <c r="A85" s="5">
+        <v>127.5</v>
       </c>
       <c r="B85">
-        <v>0.14359319666377568</v>
+        <v>0.12343609577061754</v>
       </c>
       <c r="C85" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>995</v>
+      <c r="A86" s="5">
+        <v>128</v>
       </c>
       <c r="B86">
-        <v>0.12539911665185891</v>
+        <v>0.11412815437304413</v>
       </c>
       <c r="C86" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>996</v>
+      <c r="A87" s="5">
+        <v>128.5</v>
       </c>
       <c r="B87">
-        <v>0.16164437569542672</v>
+        <v>0.10736319858576265</v>
       </c>
       <c r="C87" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>997</v>
+      <c r="A88" s="5">
+        <v>129</v>
       </c>
       <c r="B88">
-        <v>0.16113497646521116</v>
+        <v>0.10495794524101799</v>
       </c>
       <c r="C88" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>998</v>
+      <c r="A89" s="5">
+        <v>129.5</v>
       </c>
       <c r="B89">
-        <v>0.17118231115682458</v>
+        <v>0.11573092809714096</v>
       </c>
       <c r="C89" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>999</v>
+      <c r="A90" s="5">
+        <v>130</v>
       </c>
       <c r="B90">
-        <v>0.1693282013738083</v>
+        <v>0.10890352537399878</v>
       </c>
       <c r="C90" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>1000</v>
+      <c r="A91" s="5">
+        <v>130.5</v>
       </c>
       <c r="B91">
-        <v>0.1643869128296099</v>
+        <v>0.10576999469613454</v>
       </c>
       <c r="C91" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>1001</v>
+      <c r="A92" s="5">
+        <v>131</v>
       </c>
       <c r="B92">
-        <v>0.16593121904190919</v>
+        <v>0.10059966816736263</v>
       </c>
       <c r="C92" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>1002</v>
+      <c r="A93" s="5">
+        <v>131.5</v>
       </c>
       <c r="B93">
-        <v>0.14631077617145993</v>
+        <v>0.10760608213282673</v>
       </c>
       <c r="C93" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>1003</v>
+      <c r="A94" s="5">
+        <v>132</v>
       </c>
       <c r="B94">
-        <v>0.1279372374031344</v>
+        <v>0.11439972076272317</v>
       </c>
       <c r="C94" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>1004</v>
+      <c r="A95" s="5">
+        <v>132.5</v>
       </c>
       <c r="B95">
-        <v>0.12750589795030945</v>
+        <v>0.10718012036319284</v>
       </c>
       <c r="C95" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>1005</v>
+      <c r="A96" s="5">
+        <v>133</v>
       </c>
       <c r="B96">
-        <v>0.14108820557229113</v>
+        <v>0.10150597777883848</v>
       </c>
       <c r="C96" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>1006</v>
+      <c r="A97" s="5">
+        <v>133.5</v>
       </c>
       <c r="B97">
-        <v>0.12594778306865614</v>
+        <v>0.11407972863704194</v>
       </c>
       <c r="C97" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>1007</v>
+      <c r="A98" s="5">
+        <v>134</v>
       </c>
       <c r="B98">
-        <v>0.15266263169586944</v>
+        <v>0.10825597588163027</v>
       </c>
       <c r="C98" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>1008</v>
+      <c r="A99" s="5">
+        <v>134.5</v>
       </c>
       <c r="B99">
-        <v>0.1836565872820439</v>
+        <v>0.13887499060286343</v>
       </c>
       <c r="C99" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>1009</v>
+      <c r="A100" s="5">
+        <v>135.5</v>
       </c>
       <c r="B100">
-        <v>0.18550757904231271</v>
+        <v>0.13522829024635333</v>
       </c>
       <c r="C100" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>1010</v>
+      <c r="A101" s="5">
+        <v>136</v>
       </c>
       <c r="B101">
-        <v>0.18656512133628939</v>
+        <v>0.14159081074894625</v>
       </c>
       <c r="C101" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>1011</v>
+      <c r="A102" s="5">
+        <v>136.5</v>
       </c>
       <c r="B102">
-        <v>0.17601620282594921</v>
+        <v>0.14789702148765035</v>
       </c>
       <c r="C102" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>1012</v>
+      <c r="A103" s="5">
+        <v>137</v>
       </c>
       <c r="B103">
-        <v>0.16995983062680131</v>
+        <v>0.14610979026345217</v>
       </c>
       <c r="C103" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>1013</v>
+      <c r="A104" s="5">
+        <v>137.5</v>
       </c>
       <c r="B104">
-        <v>0.15925036118538771</v>
+        <v>0.11469905458268308</v>
       </c>
       <c r="C104" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>1014</v>
+      <c r="A105" s="5">
+        <v>138</v>
       </c>
       <c r="B105">
-        <v>9.5435476572192396E-2</v>
+        <v>0.13575599533278149</v>
       </c>
       <c r="C105" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>1015</v>
+      <c r="A106" s="5">
+        <v>138.5</v>
       </c>
       <c r="B106">
-        <v>0.10703783179725219</v>
+        <v>0.14344042570768611</v>
       </c>
       <c r="C106" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>1016</v>
+      <c r="A107" s="5">
+        <v>139</v>
       </c>
       <c r="B107">
-        <v>0.10521697307920738</v>
+        <v>0.13900380539436666</v>
       </c>
       <c r="C107" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>1017</v>
+      <c r="A108" s="5">
+        <v>139.5</v>
       </c>
       <c r="B108">
-        <v>0.13780160958962975</v>
+        <v>0.12835417832216617</v>
       </c>
       <c r="C108" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>1018</v>
+      <c r="A109" s="5">
+        <v>140</v>
       </c>
       <c r="B109">
-        <v>0.14615701251851337</v>
+        <v>0.12256753043013972</v>
       </c>
       <c r="C109" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>1019</v>
+      <c r="A110" s="5">
+        <v>140.5</v>
       </c>
       <c r="B110">
-        <v>0.14032113433839602</v>
+        <v>0.11128464492942081</v>
       </c>
       <c r="C110" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>1020</v>
+      <c r="A111" s="5">
+        <v>141</v>
       </c>
       <c r="B111">
-        <v>0.14061432337311749</v>
+        <v>0.13907596386303822</v>
       </c>
       <c r="C111" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>1021</v>
+      <c r="A112" s="5">
+        <v>141.5</v>
       </c>
       <c r="B112">
-        <v>0.12315012129284918</v>
+        <v>0.13888655680833789</v>
       </c>
       <c r="C112" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>1022</v>
+      <c r="A113" s="5">
+        <v>142</v>
       </c>
       <c r="B113">
-        <v>8.6987508154043144E-2</v>
+        <v>0.11116300615463795</v>
       </c>
       <c r="C113" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>1023</v>
+      <c r="A114" s="5">
+        <v>142.5</v>
       </c>
       <c r="B114">
-        <v>0.13934494992237345</v>
+        <v>0.10525394855725113</v>
       </c>
       <c r="C114" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>1024</v>
+      <c r="A115" s="5">
+        <v>143</v>
       </c>
       <c r="B115">
-        <v>0.11546145909681899</v>
+        <v>9.7524854886970727E-2</v>
       </c>
       <c r="C115" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>1025</v>
+      <c r="A116" s="5">
+        <v>143.5</v>
       </c>
       <c r="B116">
-        <v>0.10614226481793193</v>
+        <v>0.10230898505712159</v>
       </c>
       <c r="C116" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>1026</v>
+      <c r="A117" s="5">
+        <v>144</v>
       </c>
       <c r="B117">
-        <v>7.7674312700980755E-2</v>
+        <v>0.13176580323189041</v>
       </c>
       <c r="C117" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>1027</v>
+      <c r="A118" s="5">
+        <v>144.5</v>
       </c>
       <c r="B118">
-        <v>8.8016201684622847E-2</v>
+        <v>0.1163128097219898</v>
       </c>
       <c r="C118" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>1028</v>
+      <c r="A119" s="5">
+        <v>145</v>
       </c>
       <c r="B119">
-        <v>0.10223685914650459</v>
+        <v>0.1195139691001446</v>
       </c>
       <c r="C119" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>1029</v>
+      <c r="A120" s="5">
+        <v>145.5</v>
       </c>
       <c r="B120">
-        <v>9.188464492627299E-2</v>
+        <v>0.12688738025666832</v>
       </c>
       <c r="C120" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>1030</v>
+      <c r="A121" s="5">
+        <v>146.5</v>
       </c>
       <c r="B121">
-        <v>9.6899060620428579E-2</v>
+        <v>0.11863123713668408</v>
       </c>
       <c r="C121" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>1031</v>
+      <c r="A122" s="5">
+        <v>147</v>
       </c>
       <c r="B122">
-        <v>5.0109192788971918E-3</v>
+        <v>0.13246134604201382</v>
       </c>
       <c r="C122" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>1032</v>
+      <c r="A123" s="5">
+        <v>147.5</v>
       </c>
       <c r="B123">
-        <v>6.9488957545314325E-2</v>
+        <v>9.3458024130652767E-2</v>
       </c>
       <c r="C123" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>1033</v>
+      <c r="A124" s="5">
+        <v>148</v>
       </c>
       <c r="B124">
-        <v>9.2609645800086363E-2</v>
+        <v>7.8611856352252166E-2</v>
       </c>
       <c r="C124" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>1034</v>
+      <c r="A125" s="5">
+        <v>148.5</v>
       </c>
       <c r="B125">
-        <v>7.4839289764589784E-2</v>
+        <v>0.10186057745794372</v>
       </c>
       <c r="C125" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>1035</v>
+      <c r="A126" s="5">
+        <v>149</v>
       </c>
       <c r="B126">
-        <v>8.0478951691070569E-2</v>
+        <v>9.2830544922971617E-2</v>
       </c>
       <c r="C126" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>1036</v>
+      <c r="A127" s="5">
+        <v>149.5</v>
       </c>
       <c r="B127">
-        <v>8.0172811350451914E-2</v>
+        <v>7.6063570099716565E-2</v>
       </c>
       <c r="C127" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>1037</v>
+      <c r="A128" s="5">
+        <v>150</v>
       </c>
       <c r="B128">
-        <v>7.7877680427359749E-2</v>
+        <v>0.11751513884605835</v>
       </c>
       <c r="C128" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>1038</v>
+      <c r="A129" s="5">
+        <v>150.5</v>
       </c>
       <c r="B129">
-        <v>7.7210633331752043E-2</v>
+        <v>0.12114970575434685</v>
       </c>
       <c r="C129" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>1039</v>
+      <c r="A130" s="5">
+        <v>151</v>
       </c>
       <c r="B130">
-        <v>6.3362423549140328E-3</v>
+        <v>0.10426939674683888</v>
       </c>
       <c r="C130" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>1040</v>
+      <c r="A131" s="5">
+        <v>151.5</v>
       </c>
       <c r="B131">
-        <v>7.5199946905471687E-2</v>
+        <v>0.13651636128600739</v>
       </c>
       <c r="C131" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>1041</v>
+      <c r="A132" s="5">
+        <v>152</v>
       </c>
       <c r="B132">
-        <v>7.2978104401260069E-2</v>
+        <v>0.11578129281561655</v>
       </c>
       <c r="C132" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>1042</v>
+      <c r="A133" s="5">
+        <v>152.5</v>
       </c>
       <c r="B133">
-        <v>7.5445389111812936E-2</v>
+        <v>0.13512133563993642</v>
       </c>
       <c r="C133" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>1043</v>
+      <c r="A134" s="5">
+        <v>153</v>
       </c>
       <c r="B134">
-        <v>9.7623194518833986E-2</v>
+        <v>0.13793874910011203</v>
       </c>
       <c r="C134" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>1044</v>
+      <c r="A135" s="5">
+        <v>153.5</v>
       </c>
       <c r="B135">
-        <v>7.9711685330017157E-2</v>
+        <v>0.13919103124305321</v>
       </c>
       <c r="C135" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>1045</v>
+      <c r="A136" s="5">
+        <v>154</v>
       </c>
       <c r="B136">
-        <v>8.5441146785317057E-2</v>
+        <v>9.8346888249477446E-2</v>
       </c>
       <c r="C136" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>1046</v>
+      <c r="A137" s="5">
+        <v>154.5</v>
       </c>
       <c r="B137">
-        <v>7.4435771822872504E-2</v>
+        <v>0.16622376308082515</v>
       </c>
       <c r="C137" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>1047</v>
+      <c r="A138" s="5">
+        <v>155</v>
       </c>
       <c r="B138">
-        <v>7.7429519854286907E-2</v>
+        <v>0.1649317990728473</v>
       </c>
       <c r="C138" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>1048</v>
+      <c r="A139" s="5">
+        <v>155.5</v>
       </c>
       <c r="B139">
-        <v>8.1617877737373126E-2</v>
+        <v>0.11557310775426408</v>
       </c>
       <c r="C139" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>1049</v>
+      <c r="A140" s="5">
+        <v>156</v>
       </c>
       <c r="B140">
-        <v>8.359155203083414E-2</v>
+        <v>0.12488495080270037</v>
       </c>
       <c r="C140" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>1050</v>
+      <c r="A141" s="5">
+        <v>156.5</v>
       </c>
       <c r="B141">
-        <v>7.697553549179699E-2</v>
+        <v>0.10556214467945005</v>
       </c>
       <c r="C141" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>1051</v>
+      <c r="A142" s="5">
+        <v>157</v>
       </c>
       <c r="B142">
-        <v>6.6640999243769497E-2</v>
+        <v>0.12892617917736068</v>
       </c>
       <c r="C142" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>1052</v>
+      <c r="A143" s="5">
+        <v>157.5</v>
       </c>
       <c r="B143">
-        <v>0.19630229691118745</v>
+        <v>0.11607781403412043</v>
       </c>
       <c r="C143" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>1053</v>
+      <c r="A144" s="5">
+        <v>158</v>
       </c>
       <c r="B144">
-        <v>0.21785265603509735</v>
+        <v>0.10828534760906715</v>
       </c>
       <c r="C144" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>1054</v>
+      <c r="A145" s="5">
+        <v>158.5</v>
       </c>
       <c r="B145">
-        <v>0.22830960267056247</v>
+        <v>0.12404703442942022</v>
       </c>
       <c r="C145" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>1055</v>
+      <c r="A146" s="5">
+        <v>159</v>
       </c>
       <c r="B146">
-        <v>0.23049530058314663</v>
+        <v>0.12841244524633871</v>
       </c>
       <c r="C146" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>1056</v>
+      <c r="A147" s="5">
+        <v>159.5</v>
       </c>
       <c r="B147">
-        <v>0.23427445791304005</v>
+        <v>0.12042960927324925</v>
       </c>
       <c r="C147" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>1057</v>
+      <c r="A148" s="5">
+        <v>160</v>
       </c>
       <c r="B148">
-        <v>0.24019622089826823</v>
+        <v>0.11359801388613833</v>
       </c>
       <c r="C148" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>1058</v>
+      <c r="A149" s="5">
+        <v>160.5</v>
       </c>
       <c r="B149">
-        <v>0.23543539108215594</v>
+        <v>0.12397063321870665</v>
       </c>
       <c r="C149" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>1059</v>
+      <c r="A150" s="5">
+        <v>161</v>
       </c>
       <c r="B150">
-        <v>0.23987617152767879</v>
+        <v>9.9992568364259848E-2</v>
       </c>
       <c r="C150" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>1060</v>
+      <c r="A151" s="5">
+        <v>161.5</v>
       </c>
       <c r="B151">
-        <v>0.23255052174058591</v>
+        <v>0.11585488527426545</v>
       </c>
       <c r="C151" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>1061</v>
+      <c r="A152" s="5">
+        <v>162</v>
       </c>
       <c r="B152">
-        <v>0.23501866578287831</v>
+        <v>0.12542849564946437</v>
       </c>
       <c r="C152" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>1062</v>
+      <c r="A153" s="5">
+        <v>162.5</v>
       </c>
       <c r="B153">
-        <v>0.20972044987462124</v>
+        <v>0.12563190729984977</v>
       </c>
       <c r="C153" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>1063</v>
+      <c r="A154" s="5">
+        <v>163</v>
       </c>
       <c r="B154">
-        <v>0.18720627809291671</v>
+        <v>0.19935239748219252</v>
       </c>
       <c r="C154" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>1064</v>
+      <c r="A155" s="5">
+        <v>163.5</v>
       </c>
       <c r="B155">
-        <v>0.16705111411126281</v>
+        <v>0.12014894793175614</v>
       </c>
       <c r="C155" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>1065</v>
+      <c r="A156" s="5">
+        <v>164</v>
       </c>
       <c r="B156">
-        <v>0.15518441825437945</v>
+        <v>0.11856944494360087</v>
       </c>
       <c r="C156" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>1066</v>
+      <c r="A157" s="5">
+        <v>164.5</v>
       </c>
       <c r="B157">
-        <v>0.155269731791745</v>
+        <v>0.11902533865645119</v>
       </c>
       <c r="C157" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>1067</v>
+      <c r="A158" s="5">
+        <v>165</v>
       </c>
       <c r="B158">
-        <v>0.13854262801702857</v>
+        <v>0.12915922592511456</v>
       </c>
       <c r="C158" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>1068</v>
+      <c r="A159" s="5">
+        <v>165.5</v>
       </c>
       <c r="B159">
-        <v>0.12920845390085864</v>
+        <v>0.13954771076330252</v>
       </c>
       <c r="C159" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>1069</v>
+      <c r="A160" s="5">
+        <v>166</v>
       </c>
       <c r="B160">
-        <v>0.13077844934154617</v>
+        <v>0.12455514058153641</v>
       </c>
       <c r="C160" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>1070</v>
+      <c r="A161" s="5">
+        <v>166.5</v>
       </c>
       <c r="B161">
-        <v>0.12703464806690695</v>
+        <v>0.17474631925591272</v>
       </c>
       <c r="C161" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>1071</v>
+      <c r="A162" s="5">
+        <v>167.5</v>
       </c>
       <c r="B162">
-        <v>0.10408016009212594</v>
+        <v>0.21350134561241438</v>
       </c>
       <c r="C162" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>1072</v>
+      <c r="A163" s="5">
+        <v>168</v>
       </c>
       <c r="B163">
-        <v>0.12651175286382368</v>
+        <v>0.21309917692436176</v>
       </c>
       <c r="C163" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>1073</v>
+      <c r="A164" s="5">
+        <v>168.5</v>
       </c>
       <c r="B164">
-        <v>0.10125812568877406</v>
+        <v>0.17821391740526243</v>
       </c>
       <c r="C164" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>1074</v>
+      <c r="A165" s="5">
+        <v>169</v>
       </c>
       <c r="B165">
-        <v>9.0786741697433906E-2</v>
+        <v>0.20999657639631264</v>
       </c>
       <c r="C165" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>1075</v>
+      <c r="A166" s="5">
+        <v>169.5</v>
       </c>
       <c r="B166">
-        <v>0.17223854010923104</v>
+        <v>0.20996040942917935</v>
       </c>
       <c r="C166" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>1076</v>
+      <c r="A167" s="5">
+        <v>170</v>
       </c>
       <c r="B167">
-        <v>0.18868878332333128</v>
+        <v>0.21871443273827032</v>
       </c>
       <c r="C167" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>1077</v>
+      <c r="A168" s="5">
+        <v>170.5</v>
       </c>
       <c r="B168">
-        <v>0.19513317330831173</v>
+        <v>0.22718500845650128</v>
       </c>
       <c r="C168" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>1078</v>
+      <c r="A169" s="5">
+        <v>171</v>
       </c>
       <c r="B169">
-        <v>0.19847732175051291</v>
+        <v>0.24030065702056397</v>
       </c>
       <c r="C169" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>1079</v>
+      <c r="A170" s="5">
+        <v>171.5</v>
       </c>
       <c r="B170">
-        <v>0.1786112493389711</v>
+        <v>0.20412871595986357</v>
       </c>
       <c r="C170" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>1080</v>
+      <c r="A171" s="5">
+        <v>172</v>
       </c>
       <c r="B171">
-        <v>0.15808569545329063</v>
+        <v>0.24932957251666699</v>
       </c>
       <c r="C171" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>1081</v>
+      <c r="A172" s="5">
+        <v>172.5</v>
       </c>
       <c r="B172">
-        <v>0.16154351808709247</v>
+        <v>0.27001733679028622</v>
       </c>
       <c r="C172" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>1082</v>
+      <c r="A173" s="5">
+        <v>173</v>
       </c>
       <c r="B173">
-        <v>0.16720921200091055</v>
+        <v>0.17729822119621252</v>
       </c>
       <c r="C173" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>1083</v>
+        <v>941</v>
       </c>
       <c r="B174">
-        <v>0.15156551380480246</v>
+        <v>0.15111506774904188</v>
       </c>
       <c r="C174" t="s">
         <v>1276</v>
@@ -11728,10 +11700,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>1084</v>
+        <v>942</v>
       </c>
       <c r="B175">
-        <v>0.16383178699624468</v>
+        <v>0.17146871471747843</v>
       </c>
       <c r="C175" t="s">
         <v>1276</v>
@@ -11739,10 +11711,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>1085</v>
+        <v>943</v>
       </c>
       <c r="B176">
-        <v>0.1507064593303756</v>
+        <v>0.16477354502635913</v>
       </c>
       <c r="C176" t="s">
         <v>1276</v>
@@ -11750,10 +11722,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>1086</v>
+        <v>944</v>
       </c>
       <c r="B177">
-        <v>0.15185055237360182</v>
+        <v>0.17713291750995105</v>
       </c>
       <c r="C177" t="s">
         <v>1276</v>
@@ -11761,10 +11733,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>1087</v>
+        <v>945</v>
       </c>
       <c r="B178">
-        <v>0.15841900855774627</v>
+        <v>0.17899231309307209</v>
       </c>
       <c r="C178" t="s">
         <v>1276</v>
@@ -11772,10 +11744,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>1088</v>
+        <v>946</v>
       </c>
       <c r="B179">
-        <v>0.1675845780845639</v>
+        <v>0.1671036458020328</v>
       </c>
       <c r="C179" t="s">
         <v>1276</v>
@@ -11783,10 +11755,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>1089</v>
+        <v>947</v>
       </c>
       <c r="B180">
-        <v>0.16006539595681107</v>
+        <v>0.17687941971869137</v>
       </c>
       <c r="C180" t="s">
         <v>1276</v>
@@ -11794,10 +11766,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>1090</v>
+        <v>948</v>
       </c>
       <c r="B181">
-        <v>0.13745847325817623</v>
+        <v>0.18139181640788785</v>
       </c>
       <c r="C181" t="s">
         <v>1276</v>
@@ -11805,10 +11777,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>1091</v>
+        <v>949</v>
       </c>
       <c r="B182">
-        <v>0.15482573952064316</v>
+        <v>0.18290134062039204</v>
       </c>
       <c r="C182" t="s">
         <v>1276</v>
@@ -11816,10 +11788,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>1092</v>
+        <v>950</v>
       </c>
       <c r="B183">
-        <v>0.1486776527781013</v>
+        <v>0.19364697846128917</v>
       </c>
       <c r="C183" t="s">
         <v>1276</v>
@@ -11827,10 +11799,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>1093</v>
+        <v>951</v>
       </c>
       <c r="B184">
-        <v>0.14857531871124283</v>
+        <v>0.20279970699473973</v>
       </c>
       <c r="C184" t="s">
         <v>1276</v>
@@ -11838,10 +11810,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>1094</v>
+        <v>952</v>
       </c>
       <c r="B185">
-        <v>0.11651332901394112</v>
+        <v>0.16906182791233201</v>
       </c>
       <c r="C185" t="s">
         <v>1276</v>
@@ -11849,10 +11821,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>1095</v>
+        <v>953</v>
       </c>
       <c r="B186">
-        <v>0.10054270283563749</v>
+        <v>0.15967957355209622</v>
       </c>
       <c r="C186" t="s">
         <v>1276</v>
@@ -11860,10 +11832,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>1096</v>
+        <v>954</v>
       </c>
       <c r="B187">
-        <v>0.10217811392071437</v>
+        <v>0.19979027232324187</v>
       </c>
       <c r="C187" t="s">
         <v>1276</v>
@@ -11871,10 +11843,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>1097</v>
+        <v>955</v>
       </c>
       <c r="B188">
-        <v>9.1953929716744501E-2</v>
+        <v>0.19675585691930372</v>
       </c>
       <c r="C188" t="s">
         <v>1276</v>
@@ -11882,10 +11854,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>1098</v>
+        <v>956</v>
       </c>
       <c r="B189">
-        <v>0.15867458833944598</v>
+        <v>0.19212460219210645</v>
       </c>
       <c r="C189" t="s">
         <v>1276</v>
@@ -11893,10 +11865,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>1099</v>
+        <v>957</v>
       </c>
       <c r="B190">
-        <v>0.16248536417746956</v>
+        <v>0.19167928902560585</v>
       </c>
       <c r="C190" t="s">
         <v>1276</v>
@@ -11904,10 +11876,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>1100</v>
+        <v>958</v>
       </c>
       <c r="B191">
-        <v>0.15031009644384119</v>
+        <v>0.18198458639079174</v>
       </c>
       <c r="C191" t="s">
         <v>1276</v>
@@ -11915,10 +11887,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>1101</v>
+        <v>959</v>
       </c>
       <c r="B192">
-        <v>0.14848411052242574</v>
+        <v>0.19326932184684351</v>
       </c>
       <c r="C192" t="s">
         <v>1276</v>
@@ -11926,10 +11898,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>1102</v>
+        <v>960</v>
       </c>
       <c r="B193">
-        <v>0.20578142452975548</v>
+        <v>0.1898458413404408</v>
       </c>
       <c r="C193" t="s">
         <v>1276</v>
@@ -11937,10 +11909,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>1103</v>
+        <v>961</v>
       </c>
       <c r="B194">
-        <v>0.16765392756682518</v>
+        <v>0.19743452219809868</v>
       </c>
       <c r="C194" t="s">
         <v>1276</v>
@@ -11948,10 +11920,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>1104</v>
+        <v>962</v>
       </c>
       <c r="B195">
-        <v>0.17835689969019569</v>
+        <v>0.19987100673685712</v>
       </c>
       <c r="C195" t="s">
         <v>1276</v>
@@ -11959,10 +11931,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>1105</v>
+        <v>963</v>
       </c>
       <c r="B196">
-        <v>0.18545515619185846</v>
+        <v>0.17342432463368848</v>
       </c>
       <c r="C196" t="s">
         <v>1276</v>
@@ -11970,10 +11942,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>1106</v>
+        <v>964</v>
       </c>
       <c r="B197">
-        <v>0.13407949539946853</v>
+        <v>0.19670064186043015</v>
       </c>
       <c r="C197" t="s">
         <v>1276</v>
@@ -11981,10 +11953,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>1107</v>
+        <v>965</v>
       </c>
       <c r="B198">
-        <v>0.13162446526555588</v>
+        <v>0.17273736119325453</v>
       </c>
       <c r="C198" t="s">
         <v>1276</v>
@@ -11992,10 +11964,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>1108</v>
+        <v>966</v>
       </c>
       <c r="B199">
-        <v>0.13390063434500143</v>
+        <v>0.19111808443730252</v>
       </c>
       <c r="C199" t="s">
         <v>1276</v>
@@ -12003,10 +11975,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>1109</v>
+        <v>967</v>
       </c>
       <c r="B200">
-        <v>0.13919663252619915</v>
+        <v>0.17957661731895341</v>
       </c>
       <c r="C200" t="s">
         <v>1276</v>
@@ -12014,10 +11986,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>1110</v>
+        <v>968</v>
       </c>
       <c r="B201">
-        <v>0.12803257601454682</v>
+        <v>0.19902428778638556</v>
       </c>
       <c r="C201" t="s">
         <v>1276</v>
@@ -12025,10 +11997,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>1111</v>
+        <v>969</v>
       </c>
       <c r="B202">
-        <v>0.14149908465954528</v>
+        <v>0.16532547488165583</v>
       </c>
       <c r="C202" t="s">
         <v>1276</v>
@@ -12036,10 +12008,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>1112</v>
+        <v>970</v>
       </c>
       <c r="B203">
-        <v>0.13971113785135814</v>
+        <v>0.14606274374645073</v>
       </c>
       <c r="C203" t="s">
         <v>1276</v>
@@ -12047,10 +12019,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>1113</v>
+        <v>971</v>
       </c>
       <c r="B204">
-        <v>0.15777441985772128</v>
+        <v>0.17992767399985918</v>
       </c>
       <c r="C204" t="s">
         <v>1276</v>
@@ -12058,10 +12030,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>1114</v>
+        <v>972</v>
       </c>
       <c r="B205">
-        <v>0.16109695796400619</v>
+        <v>0.17583578030106245</v>
       </c>
       <c r="C205" t="s">
         <v>1276</v>
@@ -12069,10 +12041,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>1115</v>
+        <v>973</v>
       </c>
       <c r="B206">
-        <v>0.15325175081326528</v>
+        <v>0.18079856304044045</v>
       </c>
       <c r="C206" t="s">
         <v>1276</v>
@@ -12080,10 +12052,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>1116</v>
+        <v>974</v>
       </c>
       <c r="B207">
-        <v>0.17967109241844964</v>
+        <v>0.19639742408329408</v>
       </c>
       <c r="C207" t="s">
         <v>1276</v>
@@ -12091,10 +12063,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>1117</v>
+        <v>975</v>
       </c>
       <c r="B208">
-        <v>0.14789563903152045</v>
+        <v>0.19910105490665173</v>
       </c>
       <c r="C208" t="s">
         <v>1276</v>
@@ -12102,10 +12074,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>1118</v>
+        <v>976</v>
       </c>
       <c r="B209">
-        <v>0.17174852744624378</v>
+        <v>0.19385985715752793</v>
       </c>
       <c r="C209" t="s">
         <v>1276</v>
@@ -12113,10 +12085,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>1119</v>
+        <v>977</v>
       </c>
       <c r="B210">
-        <v>0.143598611424125</v>
+        <v>0.20000686443968815</v>
       </c>
       <c r="C210" t="s">
         <v>1276</v>
@@ -12124,10 +12096,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>1120</v>
+        <v>978</v>
       </c>
       <c r="B211">
-        <v>0.16098148225857195</v>
+        <v>0.20081077872942021</v>
       </c>
       <c r="C211" t="s">
         <v>1276</v>
@@ -12135,10 +12107,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>1121</v>
+        <v>979</v>
       </c>
       <c r="B212">
-        <v>0.15107647491450102</v>
+        <v>0.20815820220523748</v>
       </c>
       <c r="C212" t="s">
         <v>1276</v>
@@ -12146,10 +12118,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>1122</v>
+        <v>980</v>
       </c>
       <c r="B213">
-        <v>0.14425821848992854</v>
+        <v>0.19415943199921779</v>
       </c>
       <c r="C213" t="s">
         <v>1276</v>
@@ -12157,10 +12129,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>1123</v>
+        <v>981</v>
       </c>
       <c r="B214">
-        <v>0.14800044529157769</v>
+        <v>0.20476904886957789</v>
       </c>
       <c r="C214" t="s">
         <v>1276</v>
@@ -12168,10 +12140,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>1124</v>
+        <v>982</v>
       </c>
       <c r="B215">
-        <v>0.1601239773701906</v>
+        <v>0.19947188942873528</v>
       </c>
       <c r="C215" t="s">
         <v>1276</v>
@@ -12179,10 +12151,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>1125</v>
+        <v>983</v>
       </c>
       <c r="B216">
-        <v>0.17151914503860333</v>
+        <v>0.15179536436400065</v>
       </c>
       <c r="C216" t="s">
         <v>1276</v>
@@ -12190,10 +12162,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>1126</v>
+        <v>984</v>
       </c>
       <c r="B217">
-        <v>0.17637560751836134</v>
+        <v>8.6249062184177619E-2</v>
       </c>
       <c r="C217" t="s">
         <v>1276</v>
@@ -12201,10 +12173,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>1127</v>
+        <v>985</v>
       </c>
       <c r="B218">
-        <v>0.16609189992178197</v>
+        <v>7.4738037845513111E-2</v>
       </c>
       <c r="C218" t="s">
         <v>1276</v>
@@ -12212,10 +12184,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>1128</v>
+        <v>986</v>
       </c>
       <c r="B219">
-        <v>0.16620870014959249</v>
+        <v>0.11306473102299949</v>
       </c>
       <c r="C219" t="s">
         <v>1276</v>
@@ -12223,10 +12195,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>1129</v>
+        <v>987</v>
       </c>
       <c r="B220">
-        <v>0.1703609758843985</v>
+        <v>0.12711636403506596</v>
       </c>
       <c r="C220" t="s">
         <v>1276</v>
@@ -12234,10 +12206,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>1130</v>
+        <v>988</v>
       </c>
       <c r="B221">
-        <v>0.17546196380422491</v>
+        <v>0.13639020933511603</v>
       </c>
       <c r="C221" t="s">
         <v>1276</v>
@@ -12245,10 +12217,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>1131</v>
+        <v>989</v>
       </c>
       <c r="B222">
-        <v>0.1821198457465949</v>
+        <v>0.10135858606995805</v>
       </c>
       <c r="C222" t="s">
         <v>1276</v>
@@ -12256,10 +12228,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>1132</v>
+        <v>990</v>
       </c>
       <c r="B223">
-        <v>0.16659134370695938</v>
+        <v>0.17068750481631453</v>
       </c>
       <c r="C223" t="s">
         <v>1276</v>
@@ -12267,10 +12239,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>1133</v>
+        <v>991</v>
       </c>
       <c r="B224">
-        <v>0.16519328771963554</v>
+        <v>0.17933934862302614</v>
       </c>
       <c r="C224" t="s">
         <v>1276</v>
@@ -12278,10 +12250,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>1134</v>
+        <v>992</v>
       </c>
       <c r="B225">
-        <v>0.16636060119157273</v>
+        <v>0.16620258800525572</v>
       </c>
       <c r="C225" t="s">
         <v>1276</v>
@@ -12289,10 +12261,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>1135</v>
+        <v>993</v>
       </c>
       <c r="B226">
-        <v>0.1667210205533908</v>
+        <v>0.10690996414371307</v>
       </c>
       <c r="C226" t="s">
         <v>1276</v>
@@ -12300,10 +12272,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>1136</v>
+        <v>994</v>
       </c>
       <c r="B227">
-        <v>0.16123965372725652</v>
+        <v>0.14359319666377568</v>
       </c>
       <c r="C227" t="s">
         <v>1276</v>
@@ -12311,10 +12283,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>1137</v>
+        <v>995</v>
       </c>
       <c r="B228">
-        <v>0.160661135298132</v>
+        <v>0.12539911665185891</v>
       </c>
       <c r="C228" t="s">
         <v>1276</v>
@@ -12322,10 +12294,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>1138</v>
+        <v>996</v>
       </c>
       <c r="B229">
-        <v>0.13670304782982501</v>
+        <v>0.16164437569542672</v>
       </c>
       <c r="C229" t="s">
         <v>1276</v>
@@ -12333,10 +12305,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>1139</v>
+        <v>997</v>
       </c>
       <c r="B230">
-        <v>0.13769745545448742</v>
+        <v>0.16113497646521116</v>
       </c>
       <c r="C230" t="s">
         <v>1276</v>
@@ -12344,10 +12316,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>1140</v>
+        <v>998</v>
       </c>
       <c r="B231">
-        <v>0.14993459584668403</v>
+        <v>0.17118231115682458</v>
       </c>
       <c r="C231" t="s">
         <v>1276</v>
@@ -12355,10 +12327,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>1141</v>
+        <v>999</v>
       </c>
       <c r="B232">
-        <v>0.16577629124698229</v>
+        <v>0.1693282013738083</v>
       </c>
       <c r="C232" t="s">
         <v>1276</v>
@@ -12366,10 +12338,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>1142</v>
+        <v>1000</v>
       </c>
       <c r="B233">
-        <v>0.15836275128329674</v>
+        <v>0.1643869128296099</v>
       </c>
       <c r="C233" t="s">
         <v>1276</v>
@@ -12377,10 +12349,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>1143</v>
+        <v>1001</v>
       </c>
       <c r="B234">
-        <v>0.14166857416574721</v>
+        <v>0.16593121904190919</v>
       </c>
       <c r="C234" t="s">
         <v>1276</v>
@@ -12388,10 +12360,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>1144</v>
+        <v>1002</v>
       </c>
       <c r="B235">
-        <v>0.14578878080170296</v>
+        <v>0.14631077617145993</v>
       </c>
       <c r="C235" t="s">
         <v>1276</v>
@@ -12399,10 +12371,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>1145</v>
+        <v>1003</v>
       </c>
       <c r="B236">
-        <v>0.14969365286000103</v>
+        <v>0.1279372374031344</v>
       </c>
       <c r="C236" t="s">
         <v>1276</v>
@@ -12410,10 +12382,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>1146</v>
+        <v>1004</v>
       </c>
       <c r="B237">
-        <v>0.18291853673748465</v>
+        <v>0.12750589795030945</v>
       </c>
       <c r="C237" t="s">
         <v>1276</v>
@@ -12421,10 +12393,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>1147</v>
+        <v>1005</v>
       </c>
       <c r="B238">
-        <v>0.17023306244248207</v>
+        <v>0.14108820557229113</v>
       </c>
       <c r="C238" t="s">
         <v>1276</v>
@@ -12432,10 +12404,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>1148</v>
+        <v>1006</v>
       </c>
       <c r="B239">
-        <v>0.16293538857775358</v>
+        <v>0.12594778306865614</v>
       </c>
       <c r="C239" t="s">
         <v>1276</v>
@@ -12443,10 +12415,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>1149</v>
+        <v>1007</v>
       </c>
       <c r="B240">
-        <v>0.16752819590581805</v>
+        <v>0.15266263169586944</v>
       </c>
       <c r="C240" t="s">
         <v>1276</v>
@@ -12454,10 +12426,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>1150</v>
+        <v>1008</v>
       </c>
       <c r="B241">
-        <v>0.18412910182517031</v>
+        <v>0.1836565872820439</v>
       </c>
       <c r="C241" t="s">
         <v>1276</v>
@@ -12465,10 +12437,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>1151</v>
+        <v>1009</v>
       </c>
       <c r="B242">
-        <v>0.20206544194043316</v>
+        <v>0.18550757904231271</v>
       </c>
       <c r="C242" t="s">
         <v>1276</v>
@@ -12476,10 +12448,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>1152</v>
+        <v>1010</v>
       </c>
       <c r="B243">
-        <v>0.16299724625511702</v>
+        <v>0.18656512133628939</v>
       </c>
       <c r="C243" t="s">
         <v>1276</v>
@@ -12487,10 +12459,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>1153</v>
+        <v>1011</v>
       </c>
       <c r="B244">
-        <v>0.16566508073424846</v>
+        <v>0.17601620282594921</v>
       </c>
       <c r="C244" t="s">
         <v>1276</v>
@@ -12498,10 +12470,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>1154</v>
+        <v>1012</v>
       </c>
       <c r="B245">
-        <v>0.16160483383020111</v>
+        <v>0.16995983062680131</v>
       </c>
       <c r="C245" t="s">
         <v>1276</v>
@@ -12509,10 +12481,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>1155</v>
+        <v>1013</v>
       </c>
       <c r="B246">
-        <v>0.1604247249573339</v>
+        <v>0.15925036118538771</v>
       </c>
       <c r="C246" t="s">
         <v>1276</v>
@@ -12520,10 +12492,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>1156</v>
+        <v>1014</v>
       </c>
       <c r="B247">
-        <v>0.16728627684004393</v>
+        <v>9.5435476572192396E-2</v>
       </c>
       <c r="C247" t="s">
         <v>1276</v>
@@ -12531,10 +12503,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>1157</v>
+        <v>1015</v>
       </c>
       <c r="B248">
-        <v>0.14663087662072657</v>
+        <v>0.10703783179725219</v>
       </c>
       <c r="C248" t="s">
         <v>1276</v>
@@ -12542,10 +12514,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>1158</v>
+        <v>1016</v>
       </c>
       <c r="B249">
-        <v>0.13868666811125274</v>
+        <v>0.10521697307920738</v>
       </c>
       <c r="C249" t="s">
         <v>1276</v>
@@ -12553,10 +12525,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>1159</v>
+        <v>1017</v>
       </c>
       <c r="B250">
-        <v>0.14548816196979239</v>
+        <v>0.13780160958962975</v>
       </c>
       <c r="C250" t="s">
         <v>1276</v>
@@ -12564,10 +12536,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>1160</v>
+        <v>1018</v>
       </c>
       <c r="B251">
-        <v>0.12695021996688396</v>
+        <v>0.14615701251851337</v>
       </c>
       <c r="C251" t="s">
         <v>1276</v>
@@ -12575,10 +12547,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>1161</v>
+        <v>1019</v>
       </c>
       <c r="B252">
-        <v>0.14422839835486309</v>
+        <v>0.14032113433839602</v>
       </c>
       <c r="C252" t="s">
         <v>1276</v>
@@ -12586,10 +12558,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>1162</v>
+        <v>1020</v>
       </c>
       <c r="B253">
-        <v>0.14515885078138674</v>
+        <v>0.14061432337311749</v>
       </c>
       <c r="C253" t="s">
         <v>1276</v>
@@ -12597,10 +12569,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>1163</v>
+        <v>1021</v>
       </c>
       <c r="B254">
-        <v>0.1388845661484974</v>
+        <v>0.12315012129284918</v>
       </c>
       <c r="C254" t="s">
         <v>1276</v>
@@ -12608,10 +12580,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>1164</v>
+        <v>1022</v>
       </c>
       <c r="B255">
-        <v>0.14537642995762151</v>
+        <v>8.6987508154043144E-2</v>
       </c>
       <c r="C255" t="s">
         <v>1276</v>
@@ -12619,10 +12591,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>1165</v>
+        <v>1023</v>
       </c>
       <c r="B256">
-        <v>0.1452497119069209</v>
+        <v>0.13934494992237345</v>
       </c>
       <c r="C256" t="s">
         <v>1276</v>
@@ -12630,10 +12602,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>1166</v>
+        <v>1024</v>
       </c>
       <c r="B257">
-        <v>0.13182078603271502</v>
+        <v>0.11546145909681899</v>
       </c>
       <c r="C257" t="s">
         <v>1276</v>
@@ -12641,10 +12613,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>1167</v>
+        <v>1025</v>
       </c>
       <c r="B258">
-        <v>0.14325162483210552</v>
+        <v>0.10614226481793193</v>
       </c>
       <c r="C258" t="s">
         <v>1276</v>
@@ -12652,10 +12624,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>1168</v>
+        <v>1026</v>
       </c>
       <c r="B259">
-        <v>0.1338191852257333</v>
+        <v>7.7674312700980755E-2</v>
       </c>
       <c r="C259" t="s">
         <v>1276</v>
@@ -12663,10 +12635,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>1169</v>
+        <v>1027</v>
       </c>
       <c r="B260">
-        <v>0.13834783382081997</v>
+        <v>8.8016201684622847E-2</v>
       </c>
       <c r="C260" t="s">
         <v>1276</v>
@@ -12674,10 +12646,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>1170</v>
+        <v>1028</v>
       </c>
       <c r="B261">
-        <v>0.14787466217256759</v>
+        <v>0.10223685914650459</v>
       </c>
       <c r="C261" t="s">
         <v>1276</v>
@@ -12685,10 +12657,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>1171</v>
+        <v>1029</v>
       </c>
       <c r="B262">
-        <v>0.16050891069435871</v>
+        <v>9.188464492627299E-2</v>
       </c>
       <c r="C262" t="s">
         <v>1276</v>
@@ -12696,10 +12668,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>1172</v>
+        <v>1030</v>
       </c>
       <c r="B263">
-        <v>0.13462759310485725</v>
+        <v>9.6899060620428579E-2</v>
       </c>
       <c r="C263" t="s">
         <v>1276</v>
@@ -12707,10 +12679,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>1173</v>
+        <v>1031</v>
       </c>
       <c r="B264">
-        <v>0.17182927416372776</v>
+        <v>5.0109192788971918E-3</v>
       </c>
       <c r="C264" t="s">
         <v>1276</v>
@@ -12718,10 +12690,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>1174</v>
+        <v>1032</v>
       </c>
       <c r="B265">
-        <v>0.17327495427195039</v>
+        <v>6.9488957545314325E-2</v>
       </c>
       <c r="C265" t="s">
         <v>1276</v>
@@ -12729,10 +12701,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>1175</v>
+        <v>1033</v>
       </c>
       <c r="B266">
-        <v>0.1873622630537107</v>
+        <v>9.2609645800086363E-2</v>
       </c>
       <c r="C266" t="s">
         <v>1276</v>
@@ -12740,10 +12712,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>1176</v>
+        <v>1034</v>
       </c>
       <c r="B267">
-        <v>0.15855096541059144</v>
+        <v>7.4839289764589784E-2</v>
       </c>
       <c r="C267" t="s">
         <v>1276</v>
@@ -12751,10 +12723,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>1177</v>
+        <v>1035</v>
       </c>
       <c r="B268">
-        <v>0.1644761213931287</v>
+        <v>8.0478951691070569E-2</v>
       </c>
       <c r="C268" t="s">
         <v>1276</v>
@@ -12762,10 +12734,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>1178</v>
+        <v>1036</v>
       </c>
       <c r="B269">
-        <v>0.16435713529486976</v>
+        <v>8.0172811350451914E-2</v>
       </c>
       <c r="C269" t="s">
         <v>1276</v>
@@ -12773,10 +12745,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>1179</v>
+        <v>1037</v>
       </c>
       <c r="B270">
-        <v>0.18145711119642957</v>
+        <v>7.7877680427359749E-2</v>
       </c>
       <c r="C270" t="s">
         <v>1276</v>
@@ -12784,10 +12756,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>1180</v>
+        <v>1038</v>
       </c>
       <c r="B271">
-        <v>0.18438748849557982</v>
+        <v>7.7210633331752043E-2</v>
       </c>
       <c r="C271" t="s">
         <v>1276</v>
@@ -12795,10 +12767,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>1181</v>
+        <v>1039</v>
       </c>
       <c r="B272">
-        <v>0.16255887811935979</v>
+        <v>6.3362423549140328E-3</v>
       </c>
       <c r="C272" t="s">
         <v>1276</v>
@@ -12806,10 +12778,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>1182</v>
+        <v>1040</v>
       </c>
       <c r="B273">
-        <v>0.15606649762847857</v>
+        <v>7.5199946905471687E-2</v>
       </c>
       <c r="C273" t="s">
         <v>1276</v>
@@ -12817,10 +12789,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>1183</v>
+        <v>1041</v>
       </c>
       <c r="B274">
-        <v>0.1710489535772855</v>
+        <v>7.2978104401260069E-2</v>
       </c>
       <c r="C274" t="s">
         <v>1276</v>
@@ -12828,10 +12800,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>1184</v>
+        <v>1042</v>
       </c>
       <c r="B275">
-        <v>0.19047923662547109</v>
+        <v>7.5445389111812936E-2</v>
       </c>
       <c r="C275" t="s">
         <v>1276</v>
@@ -12839,10 +12811,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>1185</v>
+        <v>1043</v>
       </c>
       <c r="B276">
-        <v>0.18331793111695266</v>
+        <v>9.7623194518833986E-2</v>
       </c>
       <c r="C276" t="s">
         <v>1276</v>
@@ -12850,10 +12822,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>1186</v>
+        <v>1044</v>
       </c>
       <c r="B277">
-        <v>0.18091636483071341</v>
+        <v>7.9711685330017157E-2</v>
       </c>
       <c r="C277" t="s">
         <v>1276</v>
@@ -12861,10 +12833,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>1187</v>
+        <v>1045</v>
       </c>
       <c r="B278">
-        <v>0.1711495141993041</v>
+        <v>8.5441146785317057E-2</v>
       </c>
       <c r="C278" t="s">
         <v>1276</v>
@@ -12872,10 +12844,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>1188</v>
+        <v>1046</v>
       </c>
       <c r="B279">
-        <v>0.1793185352437934</v>
+        <v>7.4435771822872504E-2</v>
       </c>
       <c r="C279" t="s">
         <v>1276</v>
@@ -12883,10 +12855,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>1189</v>
+        <v>1047</v>
       </c>
       <c r="B280">
-        <v>0.14962788121475792</v>
+        <v>7.7429519854286907E-2</v>
       </c>
       <c r="C280" t="s">
         <v>1276</v>
@@ -12894,10 +12866,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>1190</v>
+        <v>1048</v>
       </c>
       <c r="B281">
-        <v>0.14318430454272726</v>
+        <v>8.1617877737373126E-2</v>
       </c>
       <c r="C281" t="s">
         <v>1276</v>
@@ -12905,10 +12877,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>1191</v>
+        <v>1049</v>
       </c>
       <c r="B282">
-        <v>0.15045420772746809</v>
+        <v>8.359155203083414E-2</v>
       </c>
       <c r="C282" t="s">
         <v>1276</v>
@@ -12916,10 +12888,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>1192</v>
+        <v>1050</v>
       </c>
       <c r="B283">
-        <v>0.16347107545934703</v>
+        <v>7.697553549179699E-2</v>
       </c>
       <c r="C283" t="s">
         <v>1276</v>
@@ -12927,10 +12899,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>1193</v>
+        <v>1051</v>
       </c>
       <c r="B284">
-        <v>0.16500602018499591</v>
+        <v>6.6640999243769497E-2</v>
       </c>
       <c r="C284" t="s">
         <v>1276</v>
@@ -12938,10 +12910,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>1194</v>
+        <v>1052</v>
       </c>
       <c r="B285">
-        <v>0.16362682596128283</v>
+        <v>0.19630229691118745</v>
       </c>
       <c r="C285" t="s">
         <v>1276</v>
@@ -12949,10 +12921,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>1195</v>
+        <v>1053</v>
       </c>
       <c r="B286">
-        <v>0.16118030427536192</v>
+        <v>0.21785265603509735</v>
       </c>
       <c r="C286" t="s">
         <v>1276</v>
@@ -12960,10 +12932,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>1196</v>
+        <v>1054</v>
       </c>
       <c r="B287">
-        <v>0.16058870390839222</v>
+        <v>0.22830960267056247</v>
       </c>
       <c r="C287" t="s">
         <v>1276</v>
@@ -12971,10 +12943,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>1197</v>
+        <v>1055</v>
       </c>
       <c r="B288">
-        <v>0.16952348950307042</v>
+        <v>0.23049530058314663</v>
       </c>
       <c r="C288" t="s">
         <v>1276</v>
@@ -12982,10 +12954,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>1198</v>
+        <v>1056</v>
       </c>
       <c r="B289">
-        <v>0.15925452740676924</v>
+        <v>0.23427445791304005</v>
       </c>
       <c r="C289" t="s">
         <v>1276</v>
@@ -12993,10 +12965,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>1199</v>
+        <v>1057</v>
       </c>
       <c r="B290">
-        <v>0.15265570429341016</v>
+        <v>0.24019622089826823</v>
       </c>
       <c r="C290" t="s">
         <v>1276</v>
@@ -13004,10 +12976,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>1200</v>
+        <v>1058</v>
       </c>
       <c r="B291">
-        <v>0.12555311451113729</v>
+        <v>0.23543539108215594</v>
       </c>
       <c r="C291" t="s">
         <v>1276</v>
@@ -13015,10 +12987,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>1201</v>
+        <v>1059</v>
       </c>
       <c r="B292">
-        <v>0.11012110942995634</v>
+        <v>0.23987617152767879</v>
       </c>
       <c r="C292" t="s">
         <v>1276</v>
@@ -13026,10 +12998,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>1202</v>
+        <v>1060</v>
       </c>
       <c r="B293">
-        <v>0.13696648024305019</v>
+        <v>0.23255052174058591</v>
       </c>
       <c r="C293" t="s">
         <v>1276</v>
@@ -13037,10 +13009,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>1203</v>
+        <v>1061</v>
       </c>
       <c r="B294">
-        <v>0.1378457890799458</v>
+        <v>0.23501866578287831</v>
       </c>
       <c r="C294" t="s">
         <v>1276</v>
@@ -13048,10 +13020,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>1204</v>
+        <v>1062</v>
       </c>
       <c r="B295">
-        <v>0.15309386731201363</v>
+        <v>0.20972044987462124</v>
       </c>
       <c r="C295" t="s">
         <v>1276</v>
@@ -13059,10 +13031,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>1205</v>
+        <v>1063</v>
       </c>
       <c r="B296">
-        <v>0.13384809601332279</v>
+        <v>0.18720627809291671</v>
       </c>
       <c r="C296" t="s">
         <v>1276</v>
@@ -13070,10 +13042,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>1206</v>
+        <v>1064</v>
       </c>
       <c r="B297">
-        <v>0.14658209974945899</v>
+        <v>0.16705111411126281</v>
       </c>
       <c r="C297" t="s">
         <v>1276</v>
@@ -13081,10 +13053,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>1207</v>
+        <v>1065</v>
       </c>
       <c r="B298">
-        <v>0.14780433497115386</v>
+        <v>0.15518441825437945</v>
       </c>
       <c r="C298" t="s">
         <v>1276</v>
@@ -13092,10 +13064,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>1208</v>
+        <v>1066</v>
       </c>
       <c r="B299">
-        <v>0.1340875254089717</v>
+        <v>0.155269731791745</v>
       </c>
       <c r="C299" t="s">
         <v>1276</v>
@@ -13103,10 +13075,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>1209</v>
+        <v>1067</v>
       </c>
       <c r="B300">
-        <v>0.13224979105967885</v>
+        <v>0.13854262801702857</v>
       </c>
       <c r="C300" t="s">
         <v>1276</v>
@@ -13114,10 +13086,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>1210</v>
+        <v>1068</v>
       </c>
       <c r="B301">
-        <v>0.14193544827326252</v>
+        <v>0.12920845390085864</v>
       </c>
       <c r="C301" t="s">
         <v>1276</v>
@@ -13125,10 +13097,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>1211</v>
+        <v>1069</v>
       </c>
       <c r="B302">
-        <v>0.18959128884514406</v>
+        <v>0.13077844934154617</v>
       </c>
       <c r="C302" t="s">
         <v>1276</v>
@@ -13136,10 +13108,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>1212</v>
+        <v>1070</v>
       </c>
       <c r="B303">
-        <v>0.1791708287865951</v>
+        <v>0.12703464806690695</v>
       </c>
       <c r="C303" t="s">
         <v>1276</v>
@@ -13147,10 +13119,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>1213</v>
+        <v>1071</v>
       </c>
       <c r="B304">
-        <v>0.19300585027485198</v>
+        <v>0.10408016009212594</v>
       </c>
       <c r="C304" t="s">
         <v>1276</v>
@@ -13158,10 +13130,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>1214</v>
+        <v>1072</v>
       </c>
       <c r="B305">
-        <v>0.21714634951157658</v>
+        <v>0.12651175286382368</v>
       </c>
       <c r="C305" t="s">
         <v>1276</v>
@@ -13169,10 +13141,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>1215</v>
+        <v>1073</v>
       </c>
       <c r="B306">
-        <v>0.19597137583404228</v>
+        <v>0.10125812568877406</v>
       </c>
       <c r="C306" t="s">
         <v>1276</v>
@@ -13180,10 +13152,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>1216</v>
+        <v>1074</v>
       </c>
       <c r="B307">
-        <v>0.21579349925675864</v>
+        <v>9.0786741697433906E-2</v>
       </c>
       <c r="C307" t="s">
         <v>1276</v>
@@ -13191,10 +13163,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>1217</v>
+        <v>1075</v>
       </c>
       <c r="B308">
-        <v>0.20962946862955012</v>
+        <v>0.17223854010923104</v>
       </c>
       <c r="C308" t="s">
         <v>1276</v>
@@ -13202,10 +13174,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>1218</v>
+        <v>1076</v>
       </c>
       <c r="B309">
-        <v>0.22696817291165108</v>
+        <v>0.18868878332333128</v>
       </c>
       <c r="C309" t="s">
         <v>1276</v>
@@ -13213,10 +13185,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>1219</v>
+        <v>1077</v>
       </c>
       <c r="B310">
-        <v>8.2001479706462058E-2</v>
+        <v>0.19513317330831173</v>
       </c>
       <c r="C310" t="s">
         <v>1276</v>
@@ -13224,10 +13196,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>1220</v>
+        <v>1078</v>
       </c>
       <c r="B311">
-        <v>0.24637129605780475</v>
+        <v>0.19847732175051291</v>
       </c>
       <c r="C311" t="s">
         <v>1276</v>
@@ -13235,10 +13207,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>1221</v>
+        <v>1079</v>
       </c>
       <c r="B312">
-        <v>0.22965987971812465</v>
+        <v>0.1786112493389711</v>
       </c>
       <c r="C312" t="s">
         <v>1276</v>
@@ -13246,10 +13218,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>1222</v>
+        <v>1080</v>
       </c>
       <c r="B313">
-        <v>0.22731280667669199</v>
+        <v>0.15808569545329063</v>
       </c>
       <c r="C313" t="s">
         <v>1276</v>
@@ -13257,10 +13229,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>1223</v>
+        <v>1081</v>
       </c>
       <c r="B314">
-        <v>0.22892443456479034</v>
+        <v>0.16154351808709247</v>
       </c>
       <c r="C314" t="s">
         <v>1276</v>
@@ -13268,10 +13240,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>1224</v>
+        <v>1082</v>
       </c>
       <c r="B315">
-        <v>0.21433186527162545</v>
+        <v>0.16720921200091055</v>
       </c>
       <c r="C315" t="s">
         <v>1276</v>
@@ -13279,10 +13251,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>1225</v>
+        <v>1083</v>
       </c>
       <c r="B316">
-        <v>0.21670529375525766</v>
+        <v>0.15156551380480246</v>
       </c>
       <c r="C316" t="s">
         <v>1276</v>
@@ -13290,10 +13262,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>1226</v>
+        <v>1084</v>
       </c>
       <c r="B317">
-        <v>0.22518697713994892</v>
+        <v>0.16383178699624468</v>
       </c>
       <c r="C317" t="s">
         <v>1276</v>
@@ -13301,10 +13273,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>1227</v>
+        <v>1085</v>
       </c>
       <c r="B318">
-        <v>0.23009179792134507</v>
+        <v>0.1507064593303756</v>
       </c>
       <c r="C318" t="s">
         <v>1276</v>
@@ -13312,10 +13284,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>1228</v>
+        <v>1086</v>
       </c>
       <c r="B319">
-        <v>0.20348101964104001</v>
+        <v>0.15185055237360182</v>
       </c>
       <c r="C319" t="s">
         <v>1276</v>
@@ -13323,10 +13295,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>1229</v>
+        <v>1087</v>
       </c>
       <c r="B320">
-        <v>0.15037007909122357</v>
+        <v>0.15841900855774627</v>
       </c>
       <c r="C320" t="s">
         <v>1276</v>
@@ -13334,10 +13306,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>1230</v>
+        <v>1088</v>
       </c>
       <c r="B321">
-        <v>0.18176299757951037</v>
+        <v>0.1675845780845639</v>
       </c>
       <c r="C321" t="s">
         <v>1276</v>
@@ -13345,10 +13317,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>1231</v>
+        <v>1089</v>
       </c>
       <c r="B322">
-        <v>0.19537315197472016</v>
+        <v>0.16006539595681107</v>
       </c>
       <c r="C322" t="s">
         <v>1276</v>
@@ -13356,10 +13328,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>1232</v>
+        <v>1090</v>
       </c>
       <c r="B323">
-        <v>0.20822237927239823</v>
+        <v>0.13745847325817623</v>
       </c>
       <c r="C323" t="s">
         <v>1276</v>
@@ -13367,10 +13339,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>1233</v>
+        <v>1091</v>
       </c>
       <c r="B324">
-        <v>0.18064378644486956</v>
+        <v>0.15482573952064316</v>
       </c>
       <c r="C324" t="s">
         <v>1276</v>
@@ -13378,10 +13350,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>1234</v>
+        <v>1092</v>
       </c>
       <c r="B325">
-        <v>0.18102181496212214</v>
+        <v>0.1486776527781013</v>
       </c>
       <c r="C325" t="s">
         <v>1276</v>
@@ -13389,10 +13361,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>1235</v>
+        <v>1093</v>
       </c>
       <c r="B326">
-        <v>0.21153356217103642</v>
+        <v>0.14857531871124283</v>
       </c>
       <c r="C326" t="s">
         <v>1276</v>
@@ -13400,10 +13372,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>1236</v>
+        <v>1094</v>
       </c>
       <c r="B327">
-        <v>0.19809087640599018</v>
+        <v>0.11651332901394112</v>
       </c>
       <c r="C327" t="s">
         <v>1276</v>
@@ -13411,10 +13383,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>1237</v>
+        <v>1095</v>
       </c>
       <c r="B328">
-        <v>0.18811677379290087</v>
+        <v>0.10054270283563749</v>
       </c>
       <c r="C328" t="s">
         <v>1276</v>
@@ -13422,10 +13394,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>1238</v>
+        <v>1096</v>
       </c>
       <c r="B329">
-        <v>0.23422413156026731</v>
+        <v>0.10217811392071437</v>
       </c>
       <c r="C329" t="s">
         <v>1276</v>
@@ -13433,10 +13405,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>1239</v>
+        <v>1097</v>
       </c>
       <c r="B330">
-        <v>0.22390175183527261</v>
+        <v>9.1953929716744501E-2</v>
       </c>
       <c r="C330" t="s">
         <v>1276</v>
@@ -13444,10 +13416,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>1240</v>
+        <v>1098</v>
       </c>
       <c r="B331">
-        <v>4.8579724599583526E-2</v>
+        <v>0.15867458833944598</v>
       </c>
       <c r="C331" t="s">
         <v>1276</v>
@@ -13455,10 +13427,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>1241</v>
+        <v>1099</v>
       </c>
       <c r="B332">
-        <v>0.17007258927427241</v>
+        <v>0.16248536417746956</v>
       </c>
       <c r="C332" t="s">
         <v>1276</v>
@@ -13466,10 +13438,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>1242</v>
+        <v>1100</v>
       </c>
       <c r="B333">
-        <v>0.21983644379682044</v>
+        <v>0.15031009644384119</v>
       </c>
       <c r="C333" t="s">
         <v>1276</v>
@@ -13477,10 +13449,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>1243</v>
+        <v>1101</v>
       </c>
       <c r="B334">
-        <v>0.19393704338216364</v>
+        <v>0.14848411052242574</v>
       </c>
       <c r="C334" t="s">
         <v>1276</v>
@@ -13488,10 +13460,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>1244</v>
+        <v>1102</v>
       </c>
       <c r="B335">
-        <v>0.19363853177770732</v>
+        <v>0.20578142452975548</v>
       </c>
       <c r="C335" t="s">
         <v>1276</v>
@@ -13499,10 +13471,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>1245</v>
+        <v>1103</v>
       </c>
       <c r="B336">
-        <v>0.19233845762135002</v>
+        <v>0.16765392756682518</v>
       </c>
       <c r="C336" t="s">
         <v>1276</v>
@@ -13510,10 +13482,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>1246</v>
+        <v>1104</v>
       </c>
       <c r="B337">
-        <v>0.18235107662682093</v>
+        <v>0.17835689969019569</v>
       </c>
       <c r="C337" t="s">
         <v>1276</v>
@@ -13521,10 +13493,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>1247</v>
+        <v>1105</v>
       </c>
       <c r="B338">
-        <v>0.18611013606987264</v>
+        <v>0.18545515619185846</v>
       </c>
       <c r="C338" t="s">
         <v>1276</v>
@@ -13532,10 +13504,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>1248</v>
+        <v>1106</v>
       </c>
       <c r="B339">
-        <v>0.18096731570511654</v>
+        <v>0.13407949539946853</v>
       </c>
       <c r="C339" t="s">
         <v>1276</v>
@@ -13543,10 +13515,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>1249</v>
+        <v>1107</v>
       </c>
       <c r="B340">
-        <v>0.18245125440263471</v>
+        <v>0.13162446526555588</v>
       </c>
       <c r="C340" t="s">
         <v>1276</v>
@@ -13554,10 +13526,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>1250</v>
+        <v>1108</v>
       </c>
       <c r="B341">
-        <v>0.18722536539790063</v>
+        <v>0.13390063434500143</v>
       </c>
       <c r="C341" t="s">
         <v>1276</v>
@@ -13565,10 +13537,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>1251</v>
+        <v>1109</v>
       </c>
       <c r="B342">
-        <v>0.18389116691835461</v>
+        <v>0.13919663252619915</v>
       </c>
       <c r="C342" t="s">
         <v>1276</v>
@@ -13576,10 +13548,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>1252</v>
+        <v>1110</v>
       </c>
       <c r="B343">
-        <v>0.18704295086379946</v>
+        <v>0.12803257601454682</v>
       </c>
       <c r="C343" t="s">
         <v>1276</v>
@@ -13587,10 +13559,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>1253</v>
+        <v>1111</v>
       </c>
       <c r="B344">
-        <v>0.18494785575093509</v>
+        <v>0.14149908465954528</v>
       </c>
       <c r="C344" t="s">
         <v>1276</v>
@@ -13598,10 +13570,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>1254</v>
+        <v>1112</v>
       </c>
       <c r="B345">
-        <v>0.1874744508206686</v>
+        <v>0.13971113785135814</v>
       </c>
       <c r="C345" t="s">
         <v>1276</v>
@@ -13609,10 +13581,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>1255</v>
+        <v>1113</v>
       </c>
       <c r="B346">
-        <v>0.17525725237401721</v>
+        <v>0.15777441985772128</v>
       </c>
       <c r="C346" t="s">
         <v>1276</v>
@@ -13620,10 +13592,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>1256</v>
+        <v>1114</v>
       </c>
       <c r="B347">
-        <v>0.18213734170384907</v>
+        <v>0.16109695796400619</v>
       </c>
       <c r="C347" t="s">
         <v>1276</v>
@@ -13631,10 +13603,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>1257</v>
+        <v>1115</v>
       </c>
       <c r="B348">
-        <v>0.15160535997348834</v>
+        <v>0.15325175081326528</v>
       </c>
       <c r="C348" t="s">
         <v>1276</v>
@@ -13642,10 +13614,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>1258</v>
+        <v>1116</v>
       </c>
       <c r="B349">
-        <v>0.15434282272510796</v>
+        <v>0.17967109241844964</v>
       </c>
       <c r="C349" t="s">
         <v>1276</v>
@@ -13653,10 +13625,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>1259</v>
+        <v>1117</v>
       </c>
       <c r="B350">
-        <v>0.22040479761130113</v>
+        <v>0.14789563903152045</v>
       </c>
       <c r="C350" t="s">
         <v>1276</v>
@@ -13664,10 +13636,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>1260</v>
+        <v>1118</v>
       </c>
       <c r="B351">
-        <v>0.2306259625107748</v>
+        <v>0.17174852744624378</v>
       </c>
       <c r="C351" t="s">
         <v>1276</v>
@@ -13675,10 +13647,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>1261</v>
+        <v>1119</v>
       </c>
       <c r="B352">
-        <v>0.19800700689664644</v>
+        <v>0.143598611424125</v>
       </c>
       <c r="C352" t="s">
         <v>1276</v>
@@ -13686,10 +13658,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>1262</v>
+        <v>1120</v>
       </c>
       <c r="B353">
-        <v>0.20843314759298964</v>
+        <v>0.16098148225857195</v>
       </c>
       <c r="C353" t="s">
         <v>1276</v>
@@ -13697,10 +13669,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>1263</v>
+        <v>1121</v>
       </c>
       <c r="B354">
-        <v>0.20257312199012253</v>
+        <v>0.15107647491450102</v>
       </c>
       <c r="C354" t="s">
         <v>1276</v>
@@ -13708,10 +13680,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>1264</v>
+        <v>1122</v>
       </c>
       <c r="B355">
-        <v>0.18570158629464326</v>
+        <v>0.14425821848992854</v>
       </c>
       <c r="C355" t="s">
         <v>1276</v>
@@ -13719,10 +13691,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>1265</v>
+        <v>1123</v>
       </c>
       <c r="B356">
-        <v>0.15225613379948835</v>
+        <v>0.14800044529157769</v>
       </c>
       <c r="C356" t="s">
         <v>1276</v>
@@ -13730,10 +13702,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>1266</v>
+        <v>1124</v>
       </c>
       <c r="B357">
-        <v>0.20289654049970426</v>
+        <v>0.1601239773701906</v>
       </c>
       <c r="C357" t="s">
         <v>1276</v>
@@ -13741,10 +13713,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>1267</v>
+        <v>1125</v>
       </c>
       <c r="B358">
-        <v>0.19902198102578844</v>
+        <v>0.17151914503860333</v>
       </c>
       <c r="C358" t="s">
         <v>1276</v>
@@ -13752,10 +13724,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>1268</v>
+        <v>1126</v>
       </c>
       <c r="B359">
-        <v>0.21298922925024399</v>
+        <v>0.17637560751836134</v>
       </c>
       <c r="C359" t="s">
         <v>1276</v>
@@ -13763,10 +13735,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>1269</v>
+        <v>1127</v>
       </c>
       <c r="B360">
-        <v>0.20654173621315075</v>
+        <v>0.16609189992178197</v>
       </c>
       <c r="C360" t="s">
         <v>1276</v>
@@ -13774,10 +13746,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>1270</v>
+        <v>1128</v>
       </c>
       <c r="B361">
-        <v>0.20886261149599716</v>
+        <v>0.16620870014959249</v>
       </c>
       <c r="C361" t="s">
         <v>1276</v>
@@ -13785,10 +13757,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>1271</v>
+        <v>1129</v>
       </c>
       <c r="B362">
-        <v>0.20034414376386434</v>
+        <v>0.1703609758843985</v>
       </c>
       <c r="C362" t="s">
         <v>1276</v>
@@ -13796,10 +13768,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>1272</v>
+        <v>1130</v>
       </c>
       <c r="B363">
-        <v>0.17710228015739984</v>
+        <v>0.17546196380422491</v>
       </c>
       <c r="C363" t="s">
         <v>1276</v>
@@ -13807,10 +13779,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>1273</v>
+        <v>1131</v>
       </c>
       <c r="B364">
-        <v>0.16352629417904088</v>
+        <v>0.1821198457465949</v>
       </c>
       <c r="C364" t="s">
         <v>1276</v>
@@ -13818,10 +13790,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>1274</v>
+        <v>1132</v>
       </c>
       <c r="B365">
-        <v>0.18875939067584946</v>
+        <v>0.16659134370695938</v>
       </c>
       <c r="C365" t="s">
         <v>1276</v>
@@ -13829,12 +13801,1574 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B366">
+        <v>0.16519328771963554</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B367">
+        <v>0.16636060119157273</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B368">
+        <v>0.1667210205533908</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B369">
+        <v>0.16123965372725652</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B370">
+        <v>0.160661135298132</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B371">
+        <v>0.13670304782982501</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B372">
+        <v>0.13769745545448742</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B373">
+        <v>0.14993459584668403</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B374">
+        <v>0.16577629124698229</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B375">
+        <v>0.15836275128329674</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B376">
+        <v>0.14166857416574721</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B377">
+        <v>0.14578878080170296</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B378">
+        <v>0.14969365286000103</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B379">
+        <v>0.18291853673748465</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B380">
+        <v>0.17023306244248207</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B381">
+        <v>0.16293538857775358</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B382">
+        <v>0.16752819590581805</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B383">
+        <v>0.18412910182517031</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B384">
+        <v>0.20206544194043316</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B385">
+        <v>0.16299724625511702</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B386">
+        <v>0.16566508073424846</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B387">
+        <v>0.16160483383020111</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B388">
+        <v>0.1604247249573339</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B389">
+        <v>0.16728627684004393</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B390">
+        <v>0.14663087662072657</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B391">
+        <v>0.13868666811125274</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B392">
+        <v>0.14548816196979239</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B393">
+        <v>0.12695021996688396</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B394">
+        <v>0.14422839835486309</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B395">
+        <v>0.14515885078138674</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B396">
+        <v>0.1388845661484974</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B397">
+        <v>0.14537642995762151</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B398">
+        <v>0.1452497119069209</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B399">
+        <v>0.13182078603271502</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B400">
+        <v>0.14325162483210552</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B401">
+        <v>0.1338191852257333</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B402">
+        <v>0.13834783382081997</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B403">
+        <v>0.14787466217256759</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B404">
+        <v>0.16050891069435871</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B405">
+        <v>0.13462759310485725</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B406">
+        <v>0.17182927416372776</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B407">
+        <v>0.17327495427195039</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B408">
+        <v>0.1873622630537107</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B409">
+        <v>0.15855096541059144</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B410">
+        <v>0.1644761213931287</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B411">
+        <v>0.16435713529486976</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B412">
+        <v>0.18145711119642957</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B413">
+        <v>0.18438748849557982</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B414">
+        <v>0.16255887811935979</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B415">
+        <v>0.15606649762847857</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B416">
+        <v>0.1710489535772855</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B417">
+        <v>0.19047923662547109</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B418">
+        <v>0.18331793111695266</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B419">
+        <v>0.18091636483071341</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B420">
+        <v>0.1711495141993041</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B421">
+        <v>0.1793185352437934</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B422">
+        <v>0.14962788121475792</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B423">
+        <v>0.14318430454272726</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B424">
+        <v>0.15045420772746809</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B425">
+        <v>0.16347107545934703</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B426">
+        <v>0.16500602018499591</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B427">
+        <v>0.16362682596128283</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B428">
+        <v>0.16118030427536192</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B429">
+        <v>0.16058870390839222</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B430">
+        <v>0.16952348950307042</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B431">
+        <v>0.15925452740676924</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B432">
+        <v>0.15265570429341016</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B433">
+        <v>0.12555311451113729</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B434">
+        <v>0.11012110942995634</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B435">
+        <v>0.13696648024305019</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B436">
+        <v>0.1378457890799458</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B437">
+        <v>0.15309386731201363</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B438">
+        <v>0.13384809601332279</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B439">
+        <v>0.14658209974945899</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B440">
+        <v>0.14780433497115386</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B441">
+        <v>0.1340875254089717</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B442">
+        <v>0.13224979105967885</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B443">
+        <v>0.14193544827326252</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B444">
+        <v>0.18959128884514406</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B445">
+        <v>0.1791708287865951</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B446">
+        <v>0.19300585027485198</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B447">
+        <v>0.21714634951157658</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B448">
+        <v>0.19597137583404228</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B449">
+        <v>0.21579349925675864</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B450">
+        <v>0.20962946862955012</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B451">
+        <v>0.22696817291165108</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B452">
+        <v>8.2001479706462058E-2</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B453">
+        <v>0.24637129605780475</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B454">
+        <v>0.22965987971812465</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B455">
+        <v>0.22731280667669199</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B456">
+        <v>0.22892443456479034</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B457">
+        <v>0.21433186527162545</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B458">
+        <v>0.21670529375525766</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B459">
+        <v>0.22518697713994892</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B460">
+        <v>0.23009179792134507</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B461">
+        <v>0.20348101964104001</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B462">
+        <v>0.15037007909122357</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B463">
+        <v>0.18176299757951037</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B464">
+        <v>0.19537315197472016</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B465">
+        <v>0.20822237927239823</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B466">
+        <v>0.18064378644486956</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B467">
+        <v>0.18102181496212214</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B468">
+        <v>0.21153356217103642</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B469">
+        <v>0.19809087640599018</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B470">
+        <v>0.18811677379290087</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B471">
+        <v>0.23422413156026731</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B472">
+        <v>0.22390175183527261</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B473">
+        <v>4.8579724599583526E-2</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B474">
+        <v>0.17007258927427241</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B475">
+        <v>0.21983644379682044</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B476">
+        <v>0.19393704338216364</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B477">
+        <v>0.19363853177770732</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B478">
+        <v>0.19233845762135002</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B479">
+        <v>0.18235107662682093</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B480">
+        <v>0.18611013606987264</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B481">
+        <v>0.18096731570511654</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B482">
+        <v>0.18245125440263471</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B483">
+        <v>0.18722536539790063</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B484">
+        <v>0.18389116691835461</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B485">
+        <v>0.18704295086379946</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B486">
+        <v>0.18494785575093509</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B487">
+        <v>0.1874744508206686</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B488">
+        <v>0.17525725237401721</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B489">
+        <v>0.18213734170384907</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B490">
+        <v>0.15160535997348834</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B491">
+        <v>0.15434282272510796</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B492">
+        <v>0.22040479761130113</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B493">
+        <v>0.2306259625107748</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B494">
+        <v>0.19800700689664644</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B495">
+        <v>0.20843314759298964</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B496">
+        <v>0.20257312199012253</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B497">
+        <v>0.18570158629464326</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B498">
+        <v>0.15225613379948835</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B499">
+        <v>0.20289654049970426</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B500">
+        <v>0.19902198102578844</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B501">
+        <v>0.21298922925024399</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B502">
+        <v>0.20654173621315075</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B503">
+        <v>0.20886261149599716</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B504">
+        <v>0.20034414376386434</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B505">
+        <v>0.17710228015739984</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B506">
+        <v>0.16352629417904088</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B507">
+        <v>0.18875939067584946</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
         <v>1275</v>
       </c>
-      <c r="B366">
+      <c r="B508">
         <v>0.19905480432670103</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C508" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -13851,7 +15385,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14155,7 +15689,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875"/>
@@ -14191,11 +15725,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
   </cols>
@@ -14310,6 +15844,20 @@
       </c>
       <c r="D8" s="20">
         <v>26.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B9">
+        <v>70.61</v>
+      </c>
+      <c r="C9">
+        <v>68.38</v>
+      </c>
+      <c r="D9">
+        <v>72.88</v>
       </c>
     </row>
   </sheetData>
@@ -14321,9 +15869,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1552"/>
   <sheetViews>
-    <sheetView topLeftCell="A1525" workbookViewId="0"/>
+    <sheetView topLeftCell="A1517" workbookViewId="0">
+      <selection activeCell="A1552" sqref="A1552"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -36071,11 +37621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
